--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ptn</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H2">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I2">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J2">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N2">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O2">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P2">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q2">
-        <v>19.11620702266433</v>
+        <v>45.62627946417322</v>
       </c>
       <c r="R2">
-        <v>172.0458632039789</v>
+        <v>410.636515177559</v>
       </c>
       <c r="S2">
-        <v>0.0008954687873731178</v>
+        <v>0.002039026536320076</v>
       </c>
       <c r="T2">
-        <v>0.0008954687873731174</v>
+        <v>0.002039026536320076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H3">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I3">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J3">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N3">
         <v>123.520313</v>
       </c>
       <c r="O3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P3">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q3">
-        <v>60.07999202913632</v>
+        <v>95.84420069994856</v>
       </c>
       <c r="R3">
-        <v>540.7199282622269</v>
+        <v>862.5978062995372</v>
       </c>
       <c r="S3">
-        <v>0.00281435315823541</v>
+        <v>0.004283252346556933</v>
       </c>
       <c r="T3">
-        <v>0.002814353158235409</v>
+        <v>0.004283252346556933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H4">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I4">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J4">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N4">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P4">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q4">
-        <v>92.99649544780333</v>
+        <v>146.0043137208407</v>
       </c>
       <c r="R4">
-        <v>836.96845903023</v>
+        <v>1314.038823487566</v>
       </c>
       <c r="S4">
-        <v>0.004356275222896574</v>
+        <v>0.006524894722738932</v>
       </c>
       <c r="T4">
-        <v>0.004356275222896572</v>
+        <v>0.006524894722738931</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H5">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I5">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J5">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N5">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O5">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P5">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q5">
-        <v>21.13222758506666</v>
+        <v>32.938966583831</v>
       </c>
       <c r="R5">
-        <v>190.1900482656</v>
+        <v>296.450699254479</v>
       </c>
       <c r="S5">
-        <v>0.0009899061140976782</v>
+        <v>0.001472033830769171</v>
       </c>
       <c r="T5">
-        <v>0.0009899061140976777</v>
+        <v>0.001472033830769171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H6">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I6">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J6">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N6">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O6">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P6">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q6">
-        <v>96.84353716568201</v>
+        <v>155.8703310517748</v>
       </c>
       <c r="R6">
-        <v>871.5918344911379</v>
+        <v>1402.832979465973</v>
       </c>
       <c r="S6">
-        <v>0.004536483868785286</v>
+        <v>0.006965804465584933</v>
       </c>
       <c r="T6">
-        <v>0.004536483868785284</v>
+        <v>0.006965804465584933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>309.115586</v>
       </c>
       <c r="I7">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J7">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N7">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O7">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P7">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q7">
-        <v>1349.859713761465</v>
+        <v>2019.602937397792</v>
       </c>
       <c r="R7">
-        <v>12148.73742385319</v>
+        <v>18176.42643658012</v>
       </c>
       <c r="S7">
-        <v>0.06323206479050424</v>
+        <v>0.09025552884314479</v>
       </c>
       <c r="T7">
-        <v>0.06323206479050421</v>
+        <v>0.09025552884314478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>309.115586</v>
       </c>
       <c r="I8">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J8">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N8">
         <v>123.520313</v>
       </c>
       <c r="O8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P8">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q8">
-        <v>4242.450437322046</v>
+        <v>4242.450437322047</v>
       </c>
       <c r="R8">
         <v>38182.05393589842</v>
       </c>
       <c r="S8">
-        <v>0.1987309482521937</v>
+        <v>0.1895940042079238</v>
       </c>
       <c r="T8">
-        <v>0.1987309482521936</v>
+        <v>0.1895940042079238</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>309.115586</v>
       </c>
       <c r="I9">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J9">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N9">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P9">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q9">
-        <v>6566.795524716758</v>
+        <v>6462.739112771569</v>
       </c>
       <c r="R9">
-        <v>59101.15972245083</v>
+        <v>58164.65201494413</v>
       </c>
       <c r="S9">
-        <v>0.307611254600535</v>
+        <v>0.2888181263739096</v>
       </c>
       <c r="T9">
-        <v>0.3076112546005349</v>
+        <v>0.2888181263739095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>309.115586</v>
       </c>
       <c r="I10">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J10">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N10">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O10">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P10">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q10">
-        <v>1492.217710621155</v>
+        <v>1458.011357682334</v>
       </c>
       <c r="R10">
-        <v>13429.9593955904</v>
+        <v>13122.10221914101</v>
       </c>
       <c r="S10">
-        <v>0.06990060226081282</v>
+        <v>0.06515814752997223</v>
       </c>
       <c r="T10">
-        <v>0.06990060226081279</v>
+        <v>0.06515814752997223</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>309.115586</v>
       </c>
       <c r="I11">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J11">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>66.36787400000001</v>
+        <v>66.95989233333333</v>
       </c>
       <c r="N11">
-        <v>199.103622</v>
+        <v>200.879677</v>
       </c>
       <c r="O11">
-        <v>0.3337493586169784</v>
+        <v>0.3272633577874677</v>
       </c>
       <c r="P11">
-        <v>0.3337493586169783</v>
+        <v>0.3272633577874678</v>
       </c>
       <c r="Q11">
-        <v>6838.448087694723</v>
+        <v>6899.44878570508</v>
       </c>
       <c r="R11">
-        <v>61546.0327892525</v>
+        <v>62095.03907134572</v>
       </c>
       <c r="S11">
-        <v>0.3203363935817288</v>
+        <v>0.3083345678246814</v>
       </c>
       <c r="T11">
-        <v>0.3203363935817287</v>
+        <v>0.3083345678246814</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H12">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J12">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10053366666667</v>
+        <v>19.60046366666667</v>
       </c>
       <c r="N12">
-        <v>39.301601</v>
+        <v>58.801391</v>
       </c>
       <c r="O12">
-        <v>0.06587968613835861</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="P12">
-        <v>0.0658796861383586</v>
+        <v>0.09579635405941929</v>
       </c>
       <c r="Q12">
-        <v>37.4044428502171</v>
+        <v>77.92692236504756</v>
       </c>
       <c r="R12">
-        <v>336.6399856519539</v>
+        <v>701.342301285428</v>
       </c>
       <c r="S12">
-        <v>0.001752152560481252</v>
+        <v>0.003482533848083194</v>
       </c>
       <c r="T12">
-        <v>0.001752152560481251</v>
+        <v>0.003482533848083193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H13">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J13">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>41.17343766666666</v>
+        <v>41.17343766666667</v>
       </c>
       <c r="N13">
         <v>123.520313</v>
       </c>
       <c r="O13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="P13">
-        <v>0.2070521109852959</v>
+        <v>0.2012332605818508</v>
       </c>
       <c r="Q13">
-        <v>117.5577678998224</v>
+        <v>163.6960908230449</v>
       </c>
       <c r="R13">
-        <v>1058.019911098402</v>
+        <v>1473.264817407404</v>
       </c>
       <c r="S13">
-        <v>0.005506809574866828</v>
+        <v>0.007315535629902542</v>
       </c>
       <c r="T13">
-        <v>0.005506809574866826</v>
+        <v>0.007315535629902541</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H14">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J14">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>63.73145666666667</v>
+        <v>62.721578</v>
       </c>
       <c r="N14">
-        <v>191.19437</v>
+        <v>188.164734</v>
       </c>
       <c r="O14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="P14">
-        <v>0.3204913989896037</v>
+        <v>0.3065487937140884</v>
       </c>
       <c r="Q14">
-        <v>181.9650778589978</v>
+        <v>249.3665263506747</v>
       </c>
       <c r="R14">
-        <v>1637.68570073098</v>
+        <v>2244.298737156072</v>
       </c>
       <c r="S14">
-        <v>0.008523869166172135</v>
+        <v>0.01114412506279946</v>
       </c>
       <c r="T14">
-        <v>0.008523869166172132</v>
+        <v>0.01114412506279946</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H15">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J15">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.48213333333333</v>
+        <v>14.150157</v>
       </c>
       <c r="N15">
-        <v>43.4464</v>
+        <v>42.450471</v>
       </c>
       <c r="O15">
-        <v>0.07282744526976352</v>
+        <v>0.06915823385717373</v>
       </c>
       <c r="P15">
-        <v>0.07282744526976351</v>
+        <v>0.06915823385717375</v>
       </c>
       <c r="Q15">
-        <v>41.34916503395554</v>
+        <v>56.257760262452</v>
       </c>
       <c r="R15">
-        <v>372.1424853055999</v>
+        <v>506.319842362068</v>
       </c>
       <c r="S15">
-        <v>0.001936936894853028</v>
+        <v>0.002514144641996208</v>
       </c>
       <c r="T15">
-        <v>0.001936936894853027</v>
+        <v>0.002514144641996208</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.975769333333333</v>
+      </c>
+      <c r="H16">
+        <v>11.927308</v>
+      </c>
+      <c r="I16">
+        <v>0.03635351138648862</v>
+      </c>
+      <c r="J16">
+        <v>0.03635351138648861</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>66.95989233333333</v>
+      </c>
+      <c r="N16">
+        <v>200.879677</v>
+      </c>
+      <c r="O16">
+        <v>0.3272633577874677</v>
+      </c>
+      <c r="P16">
+        <v>0.3272633577874678</v>
+      </c>
+      <c r="Q16">
+        <v>266.2170865021685</v>
+      </c>
+      <c r="R16">
+        <v>2395.953778519516</v>
+      </c>
+      <c r="S16">
+        <v>0.01189717220370721</v>
+      </c>
+      <c r="T16">
+        <v>0.01189717220370721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.06598</v>
+      </c>
+      <c r="I17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J17">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.60046366666667</v>
+      </c>
+      <c r="N17">
+        <v>58.801391</v>
+      </c>
+      <c r="O17">
+        <v>0.09579635405941929</v>
+      </c>
+      <c r="P17">
+        <v>0.09579635405941929</v>
+      </c>
+      <c r="Q17">
+        <v>0.4310795309088889</v>
+      </c>
+      <c r="R17">
+        <v>3.87971577818</v>
+      </c>
+      <c r="S17">
+        <v>1.926483187124279E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.926483187124279E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.06598</v>
+      </c>
+      <c r="I18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J18">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>41.17343766666667</v>
+      </c>
+      <c r="N18">
+        <v>123.520313</v>
+      </c>
+      <c r="O18">
+        <v>0.2012332605818508</v>
+      </c>
+      <c r="P18">
+        <v>0.2012332605818508</v>
+      </c>
+      <c r="Q18">
+        <v>0.9055411390822223</v>
+      </c>
+      <c r="R18">
+        <v>8.149870251740001</v>
+      </c>
+      <c r="S18">
+        <v>4.046839746747294E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.046839746747294E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.855184666666666</v>
-      </c>
-      <c r="H16">
-        <v>8.565553999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="J16">
-        <v>0.02659624936283746</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>66.36787400000001</v>
-      </c>
-      <c r="N16">
-        <v>199.103622</v>
-      </c>
-      <c r="O16">
-        <v>0.3337493586169784</v>
-      </c>
-      <c r="P16">
-        <v>0.3337493586169783</v>
-      </c>
-      <c r="Q16">
-        <v>189.4925362040653</v>
-      </c>
-      <c r="R16">
-        <v>1705.432825836588</v>
-      </c>
-      <c r="S16">
-        <v>0.008876481166464223</v>
-      </c>
-      <c r="T16">
-        <v>0.008876481166464219</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.06598</v>
+      </c>
+      <c r="I19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J19">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>62.721578</v>
+      </c>
+      <c r="N19">
+        <v>188.164734</v>
+      </c>
+      <c r="O19">
+        <v>0.3065487937140884</v>
+      </c>
+      <c r="P19">
+        <v>0.3065487937140884</v>
+      </c>
+      <c r="Q19">
+        <v>1.379456572146667</v>
+      </c>
+      <c r="R19">
+        <v>12.41510914932</v>
+      </c>
+      <c r="S19">
+        <v>6.164755464045269E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.164755464045268E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.06598</v>
+      </c>
+      <c r="I20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J20">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.150157</v>
+      </c>
+      <c r="N20">
+        <v>42.450471</v>
+      </c>
+      <c r="O20">
+        <v>0.06915823385717373</v>
+      </c>
+      <c r="P20">
+        <v>0.06915823385717375</v>
+      </c>
+      <c r="Q20">
+        <v>0.31120911962</v>
+      </c>
+      <c r="R20">
+        <v>2.80088207658</v>
+      </c>
+      <c r="S20">
+        <v>1.390785443613176E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.390785443613176E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.06598</v>
+      </c>
+      <c r="I21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J21">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>66.95989233333333</v>
+      </c>
+      <c r="N21">
+        <v>200.879677</v>
+      </c>
+      <c r="O21">
+        <v>0.3272633577874677</v>
+      </c>
+      <c r="P21">
+        <v>0.3272633577874678</v>
+      </c>
+      <c r="Q21">
+        <v>1.472671232051111</v>
+      </c>
+      <c r="R21">
+        <v>13.25404108846</v>
+      </c>
+      <c r="S21">
+        <v>6.581329349427393E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.581329349427394E-05</v>
       </c>
     </row>
   </sheetData>
